--- a/biology/Mycologie/Kōji/Kōji.xlsx
+++ b/biology/Mycologie/Kōji/Kōji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C5%8Dji</t>
+          <t>Kōji</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kōji (麹/糀?) ou koji est un ferment issu de la moisissure de plusieurs ascomycètes (champignons) du genre Aspergillus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C5%8Dji</t>
+          <t>Kōji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En industrie agroalimentaire, kōji désigne le jus (ou « moût d'amorçage ») obtenu après saccharification de l'amidon contenu dans un substrat naturel (céréale, tubercule ou autre) ensemencé d'une culture de spores d'un des champignons (ascomycètes) suivants :
 Aspergillus flavus var. oryzae (Ahlb.) Kurtzman et al. (nom scientifique japonais : ki kōji-kin (キコウジキン / 黄麹菌?, « levure jaune ») : le plus utilisé, notamment pour le saké ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C5%8Dji</t>
+          <t>Kōji</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Ce que le kōji n'est pas</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On confond souvent le kōji avec :
 les Aspergillus qui le produisent (les kōji-kin) ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C5%8Dji</t>
+          <t>Kōji</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kōji est utilisé au Japon pour :
 la saccharification du riz, préalable à la fermentation alcoolique du saké, du mirin, de l'awamori, du shōchū japonais et de certains vinaigres ;
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K%C5%8Dji</t>
+          <t>Kōji</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il doit être fabriqué au moins trois jours avant son utilisation, avec des spores du champignon idoine, vendues en supermarché au Japon de décembre à avril sous le nom de tane koji (種麹?). Voici deux exemples de fabrication :
 Le kōji du saké est une culture de ki kōji-kin (Aspergillus flavus var. oryzae) ou d'un mélange des deux espèces, sur un « riz à kōji » cuit à la vapeur, et contenant 70 ml d'acide lactique pour 100 litres d'eau à 12 °C. Ces substances sont ajoutées à trois reprises pour maintenir la fermentation.
